--- a/BatteryDrain.xlsx
+++ b/BatteryDrain.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Time</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>4:24PM</t>
+  </si>
+  <si>
+    <t>10:00am</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +437,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D29" si="0">D3+C4</f>
+        <f t="shared" ref="D4:D49" si="0">D3+C4</f>
         <v>59</v>
       </c>
     </row>
@@ -634,87 +637,330 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
+      <c r="A18" s="1">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="B18">
+        <v>3.9</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>643</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
+      <c r="A19" s="1">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="B19">
+        <v>3.87</v>
+      </c>
+      <c r="C19" s="5">
+        <v>60</v>
+      </c>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
+      <c r="A20" s="1">
+        <v>0.21875</v>
+      </c>
+      <c r="B20">
+        <v>3.85</v>
+      </c>
+      <c r="C20" s="5">
+        <v>60</v>
+      </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
+      <c r="A21" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="B21">
+        <v>3.85</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
+      <c r="A22" s="1">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="B22">
+        <v>3.84</v>
+      </c>
+      <c r="C22" s="5">
+        <v>30</v>
+      </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
+      <c r="A23" s="1">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="B23">
+        <v>3.83</v>
+      </c>
+      <c r="C23" s="5">
+        <v>30</v>
+      </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
+      <c r="A24" s="1">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="B24">
+        <v>3.82</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45</v>
+      </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>868</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
+      <c r="A25" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="B25">
+        <v>3.8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>90</v>
+      </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>958</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
+      <c r="A26" s="1">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="B26">
+        <v>3.8</v>
+      </c>
+      <c r="C26" s="5">
+        <v>30</v>
+      </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>988</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>3.78</v>
+      </c>
+      <c r="C27" s="5">
+        <v>30</v>
+      </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
+      <c r="A28" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B28">
+        <v>3.77</v>
+      </c>
+      <c r="C28" s="5">
+        <v>60</v>
+      </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
+      <c r="A29" s="1">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="B29">
+        <v>3.77</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B30">
+        <v>3.77</v>
+      </c>
+      <c r="C30" s="5">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="B31">
+        <v>3.76</v>
+      </c>
+      <c r="C31" s="5">
+        <v>75</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="B32">
+        <v>3.76</v>
+      </c>
+      <c r="C32" s="5">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>1213</v>
       </c>
     </row>
   </sheetData>
